--- a/biology/Botanique/Catabrose_aquatique/Catabrose_aquatique.xlsx
+++ b/biology/Botanique/Catabrose_aquatique/Catabrose_aquatique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Catabrosa aquatica, de noms communs Catabrose aquatique ou Canche aquatique, est une plante vivace du genre Catabrosa et de la famille des Poaceae.
 </t>
@@ -513,10 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Appareil végétatif
-La canche aquatique mesure de 10 à 70 cm de hauteur, sa souche est rampante et stolonifère. La tige a des nœuds noirâtres. Les feuilles sont courtes, larges (jusqu'à 10 mm), molles, obtuses et lisses, carénées ; la ligule est allongée et obtuse ; les gaines sont comprimées, glabres et lisses.
-Appareil reproducteur
-L'inflorescence est une panicule oblongue, atteignant 30 cm de longueur, généralement panachée de violet, à rameaux verticillés et scabres, longtemps incluse dans la gaine de la feuille terminale. Les épillets ont deux (rarement une ou trois) fleurs de petite taille (environ 4 mm), l'inférieure sessile et l'autre pédicellée ; les glumes sont inégales, la supérieure étant plus grande, arrondies, irrégulièrement dentées-crénelées au sommet ; les glumelles subégales, très semblables, sont tronquées au sommet, un peu cilié sur les trois nervures saillantes. La floraison a lieu en mai et juin[1].
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La canche aquatique mesure de 10 à 70 cm de hauteur, sa souche est rampante et stolonifère. La tige a des nœuds noirâtres. Les feuilles sont courtes, larges (jusqu'à 10 mm), molles, obtuses et lisses, carénées ; la ligule est allongée et obtuse ; les gaines sont comprimées, glabres et lisses.
 </t>
         </is>
       </c>
@@ -542,12 +557,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Répartition</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">C'est une espèce circumboréale des régions tempérées froides, présente dans presque toute l'Europe, à l'exception notable du sud de la Péninsule ibérique et de la Crète ; on la trouve aussi dans une grande partie de l'Asie occidentale et centrale, et en Amérique du Nord. En France, elle existe un peu partout, mais de façon très disséminée ; elle est rare voire absente en région méditerranéenne[1].
+          <t>Appareil reproducteur</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'inflorescence est une panicule oblongue, atteignant 30 cm de longueur, généralement panachée de violet, à rameaux verticillés et scabres, longtemps incluse dans la gaine de la feuille terminale. Les épillets ont deux (rarement une ou trois) fleurs de petite taille (environ 4 mm), l'inférieure sessile et l'autre pédicellée ; les glumes sont inégales, la supérieure étant plus grande, arrondies, irrégulièrement dentées-crénelées au sommet ; les glumelles subégales, très semblables, sont tronquées au sommet, un peu cilié sur les trois nervures saillantes. La floraison a lieu en mai et juin.
 </t>
         </is>
       </c>
@@ -573,12 +594,14 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Habitat et écologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La canche aquatique est une espèce amphibie, vasicole, aux conditions oligomésotrophes[2]. Elle pousse dans les fossés, mares, bords d'étangs, sur substrats vaseux et eutrophes en milieu acide ; jusqu'à 2000 m d'altitude[1].
+          <t>Répartition</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une espèce circumboréale des régions tempérées froides, présente dans presque toute l'Europe, à l'exception notable du sud de la Péninsule ibérique et de la Crète ; on la trouve aussi dans une grande partie de l'Asie occidentale et centrale, et en Amérique du Nord. En France, elle existe un peu partout, mais de façon très disséminée ; elle est rare voire absente en région méditerranéenne.
 </t>
         </is>
       </c>
@@ -604,10 +627,45 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Habitat et écologie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La canche aquatique est une espèce amphibie, vasicole, aux conditions oligomésotrophes. Elle pousse dans les fossés, mares, bords d'étangs, sur substrats vaseux et eutrophes en milieu acide ; jusqu'à 2000 m d'altitude.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Catabrose_aquatique</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Catabrose_aquatique</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Aira aquatica var. duplicata Chaub., 1833
 Aira aquatica var. multiplicata Chaub., 1833
@@ -644,7 +702,7 @@
 Poa airoides Koeler, 1802
 Poa dulcis Salisb., 1796
 Poa pseudoairoides J.Herm., 1812
-Poa rivularis Bernh., 1800[3]</t>
+Poa rivularis Bernh., 1800</t>
         </is>
       </c>
     </row>
